--- a/data/sys-rev/Book1.xlsx
+++ b/data/sys-rev/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/lm16564_bristol_ac_uk/Documents/Documents/rrr/thesis/data/sys-rev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="486" documentId="8_{3F663B6C-EBE4-49CC-8A72-85CC93C1D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{965E7F7B-2251-440E-BE16-4E3CEC101449}"/>
+  <xr:revisionPtr revIDLastSave="560" documentId="8_{3F663B6C-EBE4-49CC-8A72-85CC93C1D1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF11D32C-D1C3-4BA5-98CE-D0C19421995F}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11265" activeTab="1" xr2:uid="{EB63F4E8-650B-4794-A381-FD0381EE3D0B}"/>
+    <workbookView xWindow="-10650" yWindow="2490" windowWidth="21600" windowHeight="11265" xr2:uid="{EB63F4E8-650B-4794-A381-FD0381EE3D0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Studies" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Outcomes!$A$1:$Z$604</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$B$1:$AO$203</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Studies!$A$1:$K$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Studies!$A$1:$L$129</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'Endnote Data'!$A$1:$D$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="872">
   <si>
     <t>Sex differences in the associations between lipid levels and incident dementia</t>
   </si>
@@ -2602,6 +2602,75 @@
   </si>
   <si>
     <t>48.4 (13.3)</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>NRSE/NRSI</t>
+  </si>
+  <si>
+    <t>Female (%)</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Taiwan National Health Insurance</t>
+  </si>
+  <si>
+    <t>51.8 | 51.6</t>
+  </si>
+  <si>
+    <t>33709 | 67066</t>
+  </si>
+  <si>
+    <t>74.2 (5.5) | 75.8 (6.4)</t>
+  </si>
+  <si>
+    <t>62.3 (11.2) | 62.1 (11.4)</t>
+  </si>
+  <si>
+    <t>Split by diabetes status, Dm, non-DM</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Japan Public Health Centre</t>
+  </si>
+  <si>
+    <t>54.1 (5.6)</t>
+  </si>
+  <si>
+    <t>Dose response</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Veterans Affairs Medical Center</t>
+  </si>
+  <si>
+    <t>Query re: inclusion - nested case/control</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Ontario Health Insurance Plan</t>
+  </si>
+  <si>
+    <t>Should be excluded - pathology</t>
+  </si>
+  <si>
+    <t>Should be excluded - cross-sectional</t>
+  </si>
+  <si>
+    <t>Multiple</t>
   </si>
 </sst>
 </file>
@@ -2767,7 +2836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2825,6 +2894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3434,26 +3504,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49CAEB68-2092-4032-A98C-939DD758535E}">
-  <sheetPr codeName="Sheet2" filterMode="1"/>
-  <dimension ref="A1:L129"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.140625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3469,29 +3539,32 @@
       <c r="E1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>803</v>
       </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
       <c r="K1" t="s">
+        <v>852</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>60</v>
       </c>
@@ -3511,26 +3584,29 @@
         <f>VLOOKUP($A2,test__2[],4)</f>
         <v>The 32-year relationship between cholesterol and dementia from midlife to late life</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
         <v>801</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>802</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>829</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1462</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>100</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>126</v>
       </c>
@@ -3550,11 +3626,14 @@
         <f>VLOOKUP($A3,test__2[],4)</f>
         <v>Absolute 10-year risk of dementia by age, sex and APOE genotype: a population-based cohort study</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="G3" t="s">
+        <v>850</v>
+      </c>
+      <c r="M3" s="21" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>366</v>
       </c>
@@ -3574,26 +3653,26 @@
         <f>VLOOKUP($A4,test__2[],4)</f>
         <v>Age-varying association between statin use and incident Alzheimer's disease</v>
       </c>
-      <c r="F4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G4" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="H4" t="s">
         <v>841</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>840</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3392</v>
       </c>
-      <c r="J4" s="11">
-        <v>0.59</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="26">
+        <v>59</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1118</v>
       </c>
@@ -3613,11 +3692,29 @@
         <f>VLOOKUP($A5,test__2[],4)</f>
         <v>APOE genotype, cholesterol level, lipid-lowering treatment, and dementia: the Three-City Study</v>
       </c>
+      <c r="F5" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="G5" t="s">
+        <v>801</v>
+      </c>
+      <c r="H5" t="s">
+        <v>802</v>
+      </c>
+      <c r="J5">
+        <v>9294</v>
+      </c>
+      <c r="K5">
+        <v>60.3</v>
+      </c>
       <c r="L5" t="s">
+        <v>288</v>
+      </c>
+      <c r="M5" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1658</v>
       </c>
@@ -3637,26 +3734,29 @@
         <f>VLOOKUP($A6,test__2[],4)</f>
         <v>Apolipoproteins and HDL cholesterol do not associate with the risk of future dementia and Alzheimer's disease: the National Finnish population study (FINRISK)</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" t="s">
         <v>846</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>471</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>845</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>13725</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>5.16</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1883</v>
       </c>
@@ -3676,8 +3776,29 @@
         <f>VLOOKUP($A7,test__2[],4)</f>
         <v>Association between comorbidities and dementia in diabetes mellitus patients: population-based retrospective cohort study</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>853</v>
+      </c>
+      <c r="H7" t="s">
+        <v>854</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="K7" t="s">
+        <v>855</v>
+      </c>
+      <c r="L7" t="s">
+        <v>858</v>
+      </c>
+      <c r="M7" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1951</v>
       </c>
@@ -3697,8 +3818,26 @@
         <f>VLOOKUP($A8,test__2[],4)</f>
         <v>The association between midlife serum high-density lipoprotein and mild cognitive impairment and dementia after 19 years of follow-up</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>860</v>
+      </c>
+      <c r="H8" t="s">
+        <v>861</v>
+      </c>
+      <c r="J8">
+        <v>781</v>
+      </c>
+      <c r="L8" t="s">
+        <v>862</v>
+      </c>
+      <c r="M8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -3718,8 +3857,29 @@
         <f>VLOOKUP($A9,test__2[],4)</f>
         <v>Association between statin use and Alzheimer's disease</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>864</v>
+      </c>
+      <c r="H9" t="s">
+        <v>865</v>
+      </c>
+      <c r="J9">
+        <v>3397</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>73</v>
+      </c>
+      <c r="M9" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -3739,8 +3899,29 @@
         <f>VLOOKUP($A10,test__2[],4)</f>
         <v>Association Between Statin Use and Risk of Dementia After a Concussion</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s">
+        <v>867</v>
+      </c>
+      <c r="H10" t="s">
+        <v>868</v>
+      </c>
+      <c r="I10">
+        <v>3.9</v>
+      </c>
+      <c r="J10">
+        <v>28815</v>
+      </c>
+      <c r="K10">
+        <v>61.3</v>
+      </c>
+      <c r="L10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2066</v>
       </c>
@@ -3760,8 +3941,11 @@
         <f>VLOOKUP($A11,test__2[],4)</f>
         <v>Association of Alzheimer disease pathology with abnormal lipid metabolism: the Hisayama Study</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2132</v>
       </c>
@@ -3781,8 +3965,11 @@
         <f>VLOOKUP($A12,test__2[],4)</f>
         <v>Association of biochemical values with morbidity in the elderly: a population-based Swedish study of persons aged 82 or more years</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2140</v>
       </c>
@@ -3802,8 +3989,17 @@
         <f>VLOOKUP($A13,test__2[],4)</f>
         <v>Association of branched-chain amino acids and other circulating metabolites with risk of incident dementia and Alzheimer's disease: A prospective study in eight cohorts</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>871</v>
+      </c>
+      <c r="J13">
+        <v>22623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2149</v>
       </c>
@@ -3824,7 +4020,7 @@
         <v>Association of cardiovascular risk factors in midlife and cognitive disorders in old age: Up to a 49-year follow-up of the Helsinki Businessmen Study</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2326</v>
       </c>
@@ -3845,7 +4041,7 @@
         <v>Association of statin use with cognitive decline in elderly African Americans</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2434</v>
       </c>
@@ -3866,7 +4062,7 @@
         <v>Associations Between Midlife Vascular Risk Factors and 25-Year Incident Dementia in the Atherosclerosis Risk in Communities (ARIC) Cohort</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2438</v>
       </c>
@@ -3887,7 +4083,7 @@
         <v>Associations between potentially modifiable risk factors and Alzheimer disease: a Mendelian randomization study</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2838</v>
       </c>
@@ -3908,7 +4104,7 @@
         <v>Blood-related risk factors of vascular diseases and their relation to dementia and biomarkers of dementia</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3094</v>
       </c>
@@ -3929,7 +4125,7 @@
         <v>Cardiovascular and biochemical risk factors for incident dementia in the Hypertension in the Very Elderly Trial</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3151</v>
       </c>
@@ -3950,7 +4146,7 @@
         <v>Cardiovascular risk factors and glucose tolerance in midlife and risk of cognitive disorders in old age up to a 49-year follow-up of the Helsinki businessmen study</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3232</v>
       </c>
@@ -3971,7 +4167,7 @@
         <v>Causal associations between risk factors and common diseases inferred from GWAS summary data</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3413</v>
       </c>
@@ -3992,7 +4188,7 @@
         <v>Cerebrovascular disease, APOE epsilon4 allele and cognitive decline in a cognitively normal population</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3587</v>
       </c>
@@ -4013,7 +4209,7 @@
         <v>Cholesterol in midlife increases the risk of Alzheimer's disease during an up to 43-year follow-up</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3588</v>
       </c>
@@ -4034,7 +4230,7 @@
         <v>Cholesterol in mild cognitive impairment and Alzheimer's disease in a birth cohort over 14 years</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3593</v>
       </c>
@@ -4055,7 +4251,7 @@
         <v>Cholesterol level, statin use and Alzheimer's disease in adults with Down syndrome</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3602</v>
       </c>
@@ -4076,7 +4272,7 @@
         <v>Cholesterol, APOE genotype, and Alzheimer disease: an epidemiologic study of Nigerian Yoruba</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3653</v>
       </c>
@@ -4097,7 +4293,7 @@
         <v>Chronic Health Illnesses as Predictors of Mild Cognitive Impairment Among African American Older Adults</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4301</v>
       </c>
@@ -4118,7 +4314,7 @@
         <v>Comparison of the risk of psychological and cognitive disorders between persistent and nonpersistent statin users</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4460</v>
       </c>
@@ -4139,7 +4335,7 @@
         <v>Correction: Effects of statins on incident dementia in patients with type 2 DM: A population-based retrospective cohort study in Taiwan (PLoS ONE (2014) 9, 2 (e88434) DOI: 10.1371/journal.pone.0088434)</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4463</v>
       </c>
@@ -4160,7 +4356,7 @@
         <v>Corrections: Low LDL cholesterol, PCSK9 and HMGCR genetic variation, and risk of Alzheimer's disease and Parkinson's disease: Mendelian randomisation study (BMJ (Online) (2017) 357 (j1648) DOI: 10.1136/bmj.j1648)</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4974</v>
       </c>
@@ -4181,7 +4377,7 @@
         <v>The design of a prospective study of Pravastatin in the Elderly at Risk (PROSPER). PROSPER Study Group. PROspective Study of Pravastatin in the Elderly at Risk</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4984</v>
       </c>
@@ -4202,7 +4398,7 @@
         <v>Designing prevention programmes to reduce incidence of dementia: Prospective cohort study of modifiable risk factors</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5007</v>
       </c>
@@ -4223,7 +4419,7 @@
         <v>Determinants, MRI correlates, and prognosis of mild cognitive impairment: the Rotterdam Study</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5046</v>
       </c>
@@ -4244,7 +4440,7 @@
         <v>Developmental and vascular risk factors for Alzheimer's disease</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5245</v>
       </c>
@@ -4265,7 +4461,7 @@
         <v>Differential associations of plasma lipids with incident dementia and dementia subtypes in the 3C Study: A longitudinal, population-based prospective cohort study</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5397</v>
       </c>
@@ -4286,7 +4482,7 @@
         <v>Do statins reduce risk of incident dementia and Alzheimer disease? The Cache County Study</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5965</v>
       </c>
@@ -4307,7 +4503,7 @@
         <v>Effect of statins on a wide range of health outcomes: a cohort study validated by comparison with randomized trials</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6297</v>
       </c>
@@ -4328,7 +4524,7 @@
         <v>Effects of statins on incident dementia in patients with type 2 DM: a population-based retrospective cohort study in Taiwan</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6298</v>
       </c>
@@ -4349,7 +4545,7 @@
         <v>Effects of Statins on Incident Dementia in Patients with Type 2 DM: A Population-Based Retrospective Cohort Study in Taiwan (vol 9, e88434, 2014)</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6536</v>
       </c>
@@ -4370,7 +4566,7 @@
         <v>Epidemiological evidence for lipid-based dementia prevention: The Lipididiet approach</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6850</v>
       </c>
@@ -4391,7 +4587,7 @@
         <v>Exploring late-life risk factors of Alzheimer's disease and other age-related dementias in CPRD</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7222</v>
       </c>
@@ -4412,7 +4608,7 @@
         <v>Gender-specific associations between lipids and cognitive decline in the elderly</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7223</v>
       </c>
@@ -4433,7 +4629,7 @@
         <v>Gender-specific midlife dementia risk: The differential role of long-term vascular risk factors</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7354</v>
       </c>
@@ -4454,7 +4650,7 @@
         <v>Genetic Interaction with Plasma Lipids on Alzheimer's Disease in the Framingham Heart Study</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>7851</v>
       </c>
@@ -4475,7 +4671,7 @@
         <v>High serum total cholesterol in mid- and late-life associated with incident dementia in younger, but not older cohorts of women</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>7859</v>
       </c>
@@ -4496,7 +4692,7 @@
         <v>High total cholesterol levels in late life associated with a reduced risk of dementia</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8074</v>
       </c>
@@ -4517,7 +4713,7 @@
         <v>Hypercholesterolemia and neurological diseases related mortality in the nedices cohort</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8255</v>
       </c>
@@ -4538,7 +4734,7 @@
         <v>Impact of cardiovascular risk factors on cognitive function: the Tromso study</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8290</v>
       </c>
@@ -4559,7 +4755,7 @@
         <v>Impact of lipid-lowering agents on the incidence of dementia and type 2 diabetes. A population-based cohort study in older Mexican Americans living in the Sacramento area of California</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8327</v>
       </c>
@@ -4580,7 +4776,7 @@
         <v>Impact of statin use on cognitive decline in healthy women from a long-term longitudinal sample</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8467</v>
       </c>
@@ -4601,7 +4797,7 @@
         <v>Incidence and risks of dementia in Japanese women: The adult health study</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>8481</v>
       </c>
@@ -4622,7 +4818,7 @@
         <v>Incidence of dementia: evidence for an effect modification by gender. The ILSA Study</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8870</v>
       </c>
@@ -4643,7 +4839,7 @@
         <v>Intensive statin regimens for reducing risk of cardiovascular diseases among human immunodeficiency virus-infected population: A nation-wide longitudinal cohort study 2000-2011</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8878</v>
       </c>
@@ -4664,7 +4860,7 @@
         <v>INTERACTION BETWEEN ALZHEIMER'S DISEASE GENETIC RISK SCORE AND MIDLIFE PLASMA LIPID LEVELS ON ALZHEIMER 's DISEASE IN THE FRAMINGHAM HEART STUDY</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>9179</v>
       </c>
@@ -4685,7 +4881,7 @@
         <v>Joint modeling of longitudinal cholesterol measurements and time to onset of dementia in an elderly African American Cohort</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>9429</v>
       </c>
@@ -4704,14 +4900,14 @@
         <f>VLOOKUP($A56,test__2[],4)</f>
         <v>Lipid lowering agents, cognitive decline, and dementia: the three-city study</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>801</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>9466</v>
       </c>
@@ -4732,7 +4928,7 @@
         <v>Lipid-lowering treatment is related to decreased risk of dementia: a population-based study (FINRISK)</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>9740</v>
       </c>
@@ -4753,7 +4949,7 @@
         <v>Low LDL cholesterol, PCSK9 and HMGCR genetic variation, and risk of Alzheimer's disease and Parkinson's disease: Mendelian randomisation study</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>9746</v>
       </c>
@@ -4774,7 +4970,7 @@
         <v>Low PCSK9 and LDL Cholesterol and Risk of Dementia, Parkinson's Disease, and Epilepsy - A Mendelian Randomization Study</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>9759</v>
       </c>
@@ -4795,7 +4991,7 @@
         <v>Low serum HDL-cholesterol concentrations in mid-life predict late-life cognitive impairment in type 2 diabetes: The Fremantle diabetes study</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>9770</v>
       </c>
@@ -4816,7 +5012,7 @@
         <v>Low-density lipoprotein cholesterol and the risk of dementia with stroke</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9944</v>
       </c>
@@ -4837,7 +5033,7 @@
         <v>Medical Comorbidity in Alzheimer's Disease: A Nested Case-Control Study</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10068</v>
       </c>
@@ -4858,7 +5054,7 @@
         <v>Mendelian Randomization Implicates High-Density Lipoprotein Cholesterol-Associated Mechanisms in Etiology of Age-Related Macular Degeneration</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>10181</v>
       </c>
@@ -4879,7 +5075,7 @@
         <v>Metabolic syndrome and risk for incident Alzheimer's disease or vascular dementia: the Three-City Study</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10184</v>
       </c>
@@ -4900,7 +5096,7 @@
         <v>Metabolic Syndrome and the Risk of Mild Cognitive Impairment and Progression to Dementia: Follow-up of the Singapore Longitudinal Ageing Study Cohort</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10280</v>
       </c>
@@ -4921,7 +5117,7 @@
         <v>Mid-life and late-life vascular risk factors and dementia in Korean men and women</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10287</v>
       </c>
@@ -4942,7 +5138,7 @@
         <v>Midlife cardiovascular risk factors and late cognitive impairment</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10288</v>
       </c>
@@ -4963,7 +5159,7 @@
         <v>Midlife cardiovascular risk factors and risk of dementia in late life</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10312</v>
       </c>
@@ -4984,7 +5180,7 @@
         <v>Midlife risk factors for subtypes of dementia: a nested case-control study in Taiwan</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>10314</v>
       </c>
@@ -5005,7 +5201,7 @@
         <v>Midlife serum cholesterol and increased risk of Alzheimer's and vascular dementia three decades later</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10321</v>
       </c>
@@ -5026,7 +5222,7 @@
         <v>Midlife vascular risk factors and Alzheimer's disease in later life: longitudinal, population based study</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>10324</v>
       </c>
@@ -5047,7 +5243,7 @@
         <v>Midlife vascular risk factors and late-life mild cognitive impairment: A population-based study</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>10325</v>
       </c>
@@ -5068,7 +5264,7 @@
         <v>Midlife vascular risk factors and midlife cognitive status in relation to prevalence of mild cognitive impairment and dementia in later life: The Atherosclerosis Risk in Communities Study</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>10327</v>
       </c>
@@ -5089,7 +5285,7 @@
         <v>Midlife vascular risk factors and their association with dementia deaths: results from a Norwegian prospective study followed up for 35 years</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>10454</v>
       </c>
@@ -5110,7 +5306,7 @@
         <v>Modifiable cardiovascular disease risk factors as predictors of dementia death: pooling of ten general population-based cohort studies</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10460</v>
       </c>
@@ -5131,7 +5327,7 @@
         <v>Modifiable risk factors for prevention of dementia in midlife and late life: the libra index</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>10562</v>
       </c>
@@ -5152,7 +5348,7 @@
         <v>MRC/BHF Heart Protection Study of cholesterol lowering with simvastatin in 20,536 high-risk individuals: a randomised placebo-controlled trial</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>10563</v>
       </c>
@@ -5173,7 +5369,7 @@
         <v>MRC/BHF Heart Protection Study of cholesterol-lowering therapy and of antioxidant vitamin supplementation in a wide range of patients at increased risk of coronary heart disease death: early safety and efficacy experience</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>10564</v>
       </c>
@@ -5194,7 +5390,7 @@
         <v>MRC/BHF Heart Protection Study of cholesterol-lowering with simvastatin in 5963 people with diabetes: a randomised placebo-controlled trial</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>10565</v>
       </c>
@@ -5215,7 +5411,7 @@
         <v>The MRC/BHF Heart Protection Study: preliminary results</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>12081</v>
       </c>
@@ -5236,7 +5432,7 @@
         <v>Plasma lipid levels in the elderly are not associated with the risk of mild cognitive impairment</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>12093</v>
       </c>
@@ -5257,7 +5453,7 @@
         <v>Plasma lipids and lipoproteins and the incidence of cardiovascular disease in the very elderly. The Bronx Aging Study</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>12134</v>
       </c>
@@ -5278,7 +5474,7 @@
         <v>Plasma total cholesterol level as a risk factor for Alzheimer disease - The Framingham study</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>12412</v>
       </c>
@@ -5299,7 +5495,7 @@
         <v>Pravastatin in elderly individuals at risk of vascular disease (PROSPER): a randomised controlled trial</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>13313</v>
       </c>
@@ -5320,7 +5516,7 @@
         <v>Reduced risk of incident AD with elective statin use in a clinical trial cohort</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>13401</v>
       </c>
@@ -5341,7 +5537,7 @@
         <v>Relation of plasma lipids to Alzheimer disease and vascular dementia</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>13402</v>
       </c>
@@ -5362,7 +5558,7 @@
         <v>Relation of plasma lipids to Alzheimer's disease and vascular dementia</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>13682</v>
       </c>
@@ -5383,7 +5579,7 @@
         <v>Risk factor versus risk marker: Serum total cholesterol, its changes after midlife and late-life cognitive impairment</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>13716</v>
       </c>
@@ -5404,7 +5600,7 @@
         <v>Risk factors for cognitive function after a 7 year follow up in a population-based study: The tromso study</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>13724</v>
       </c>
@@ -5425,7 +5621,7 @@
         <v>Risk factors for dementia in patients over 65 with diabetes</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>13739</v>
       </c>
@@ -5446,7 +5642,7 @@
         <v>Risk factors for mild cognitive impairment among Mexican Americans</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>13777</v>
       </c>
@@ -5467,7 +5663,7 @@
         <v>Risk of Alzheimer's disease incidence attributable to vascular disease in the population</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>14205</v>
       </c>
@@ -5488,7 +5684,7 @@
         <v>Serum Cholesterol and Incident Alzheimer's Disease: Findings from the Adult Changes in Thought Study</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>14206</v>
       </c>
@@ -5509,7 +5705,7 @@
         <v>Serum cholesterol and risk of Alzheimer disease: a community-based cohort study</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>14209</v>
       </c>
@@ -5530,7 +5726,7 @@
         <v>Serum cholesterol changes after midlife and late-life cognition: twenty-one-year follow-up study</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>14218</v>
       </c>
@@ -5551,7 +5747,7 @@
         <v>Serum cholesterol, APOE genotype, and the risk of Alzheimer's disease: a population-based study of African Americans</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>14271</v>
       </c>
@@ -5572,7 +5768,7 @@
         <v>Serum lipoprotein levels, statin use, and cognitive function in older women</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>14295</v>
       </c>
@@ -5593,7 +5789,7 @@
         <v>Serum total cholesterol, apolipoprotein E epsilon 4 allele, and Alzheimer's disease</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>14296</v>
       </c>
@@ -5614,7 +5810,7 @@
         <v>Serum total cholesterol, apolipoprotein E epsilon 4 allele, and risk of Alzheimer's disease in the Indianapolis Ibadan study of aging cohort</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>14333</v>
       </c>
@@ -5635,7 +5831,7 @@
         <v>Sex and Race Differences in the Association Between Statin Use and the Incidence of Alzheimer Disease</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>14346</v>
       </c>
@@ -5655,14 +5851,14 @@
         <f>VLOOKUP($A101,test__2[],4)</f>
         <v>Sex differences in the associations between lipid levels and incident dementia</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>801</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>14621</v>
       </c>
@@ -5683,7 +5879,7 @@
         <v>Statin reduces the risk of dementia in diabetic patients receiving androgen deprivation therapy for prostate cancer</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>14628</v>
       </c>
@@ -5704,7 +5900,7 @@
         <v>STATIN THERAPY AND DEMENTIA IN OLDER ADULTS: ROLE OF DISEASE SEVERITY AND MULTIMORBIDITY</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>14632</v>
       </c>
@@ -5725,7 +5921,7 @@
         <v>Statin therapy and risk of dementia in the elderly: a community-based prospective cohort study</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>14641</v>
       </c>
@@ -5746,7 +5942,7 @@
         <v>Statin therapy is associated with reduced neuropathologic changes of Alzheimer disease</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>14642</v>
       </c>
@@ -5767,7 +5963,7 @@
         <v>Statin therapy is associated with reduced neuropathologic changes of Alzheimer disease - Reply from the authors</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>14657</v>
       </c>
@@ -5788,7 +5984,7 @@
         <v>Statin use and incident dementia and alzheimer's disease in elderlyafricanamericans</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>14658</v>
       </c>
@@ -5809,7 +6005,7 @@
         <v>Statin use and incident dementia: a nationwide cohort study of Taiwan</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>14663</v>
       </c>
@@ -5830,7 +6026,7 @@
         <v>Statin use and the risk of Alzheimer's disease: the MIRAGE study</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>14664</v>
       </c>
@@ -5851,7 +6047,7 @@
         <v>Statin Use and the Risk of Dementia in Patients with Stroke: A Nationwide Population-Based Cohort Study</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>14665</v>
       </c>
@@ -5872,7 +6068,7 @@
         <v>Statin use and the risk of incident dementia: the Cardiovascular Health Study</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>14670</v>
       </c>
@@ -5893,7 +6089,7 @@
         <v>Statin Use, Incident Dementia and Alzheimer Disease in Elderly African Americans</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>14700</v>
       </c>
@@ -5914,7 +6110,7 @@
         <v>Statins and dementia prevention: A population-based study (FINRISK)</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>14709</v>
       </c>
@@ -5935,7 +6131,7 @@
         <v>Statins and serum cholesterol's associations with incident dementia and mild cognitive impairment</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>14714</v>
       </c>
@@ -5956,7 +6152,7 @@
         <v>Statins and the risk of dementia</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>14720</v>
       </c>
@@ -5977,7 +6173,7 @@
         <v>Statins are associated with a reduced risk of Alzheimer disease regardless of lipophilicity. The Rotterdam Study</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>14754</v>
       </c>
@@ -5998,7 +6194,7 @@
         <v>Statins reduce the incidence of dementia in patients with atrial fibrillation: a nationwide cohort study</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>14755</v>
       </c>
@@ -6019,7 +6215,7 @@
         <v>Statins Reduces the Risk of Dementia in Patients with Late-Onset Depression: A Retrospective Cohort Study</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>14761</v>
       </c>
@@ -6039,29 +6235,29 @@
         <f>VLOOKUP($A119,test__2[],4)</f>
         <v>Statins, incident Alzheimer disease, change in cognitive function, and neuropathology</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>251</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>130</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>806</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>929</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <v>638</v>
       </c>
-      <c r="K119">
+      <c r="L119">
         <v>74.900000000000006</v>
       </c>
-      <c r="L119" t="s">
+      <c r="M119" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>14763</v>
       </c>
@@ -6082,7 +6278,7 @@
         <v>Statins, risk of dementia, and cognitive function: secondary analysis of the ginkgo evaluation of memory study</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>15548</v>
       </c>
@@ -6103,7 +6299,7 @@
         <v>Unintended effects of statins in men and women in England and Wales: population based cohort study using the QResearch database</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>15647</v>
       </c>
@@ -6124,7 +6320,7 @@
         <v>Use of statins and incidence of dementia and cognitive impairment without dementia in a cohort study</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>15651</v>
       </c>
@@ -6145,7 +6341,7 @@
         <v>Use of statins and risk of dementia in heart failure</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>15652</v>
       </c>
@@ -6166,7 +6362,7 @@
         <v>Use of Statins and Risk of Dementia in Heart Failure: A Retrospective Cohort Study</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>15791</v>
       </c>
@@ -6187,7 +6383,7 @@
         <v>Vascular disease, vascular risk factors and risk of late-onset Alzheimer's disease: Mendelian randomization analyses in the combined adgc dataset</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>15806</v>
       </c>
@@ -6208,7 +6404,7 @@
         <v>Vascular Health and Genetic Risk Affect Mild Cognitive Impairment Status and 4-Year Stability: Evidence From the Victoria Longitudinal Study</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>15849</v>
       </c>
@@ -6229,7 +6425,7 @@
         <v>Vascular risk factors for incident Alzheimer disease and vascular dementia - The Cache County study</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>15862</v>
       </c>
@@ -6250,7 +6446,7 @@
         <v>Vascular risk factors, cognition and dementia incidence over 6 years in the Sydney Older Persons Study</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>15865</v>
       </c>
@@ -6272,13 +6468,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K129" xr:uid="{49CAEB68-2092-4032-A98C-939DD758535E}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="1658"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K129">
+  <autoFilter ref="A1:L129" xr:uid="{49CAEB68-2092-4032-A98C-939DD758535E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L129">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -6291,7 +6482,7 @@
           <x14:formula1>
             <xm:f>Validation!$D$2:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G129</xm:sqref>
+          <xm:sqref>H2:H129</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6304,7 +6495,7 @@
   <sheetPr codeName="Sheet3" filterMode="1"/>
   <dimension ref="A1:Y604"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -14515,7 +14706,7 @@
   <dimension ref="A2:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14595,6 +14786,9 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
+      <c r="D6" t="s">
+        <v>854</v>
+      </c>
       <c r="E6" t="s">
         <v>847</v>
       </c>
@@ -14606,6 +14800,9 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
+      <c r="D7" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -14614,6 +14811,9 @@
       <c r="B8" t="s">
         <v>807</v>
       </c>
+      <c r="D8" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -14621,6 +14821,9 @@
       </c>
       <c r="B9" t="s">
         <v>808</v>
+      </c>
+      <c r="D9" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
